--- a/assets/resources/scoreboard.xlsx
+++ b/assets/resources/scoreboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="六月杀人榜" sheetId="1" r:id="rId1"/>
@@ -136,14 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>警察概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀手概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平民胜率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +169,14 @@
   </si>
   <si>
     <t>MVP率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察胜率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀手胜率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +600,7 @@
   <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,16 +860,16 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,19 +881,19 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -905,19 +905,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
